--- a/pump-selector-image-combinations.xlsx
+++ b/pump-selector-image-combinations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kartik vimal\OneDrive\Desktop\pumpselector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48C07C7-51CC-4860-831D-0FD32F4F9058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B530505-B5A2-484A-8C3C-F4806AE618E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="34">
   <si>
     <t>Combination #</t>
   </si>
@@ -523,9 +523,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1576,35 +1576,16 @@
       <c r="N30" s="7"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="H31" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K31">
-        <v>30</v>
-      </c>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
